--- a/data/hotels_by_city/Houston/Houston_shard_631.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_631.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d446410-Reviews-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-HumbleFm-1960Hwy-59.h1080616.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531689239024&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=2fa55af7-154b-4c92-8a54-ec4341eddbb7&amp;mctc=9&amp;exp_dp=59.99&amp;exp_ts=1531689239886&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1467 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r535710307-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>446410</t>
+  </si>
+  <si>
+    <t>535710307</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Room was not clean . Dirty razors in the shower , open and...</t>
+  </si>
+  <si>
+    <t>Room was not clean . Dirty razors in the shower , open and used soap by the sink. Shower did not work . Could only take a bath NEVER AGAIN! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Sunny P, Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Room was not clean . Dirty razors in the shower , open and used soap by the sink. Shower did not work . Could only take a bath NEVER AGAIN! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r533462160-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>533462160</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Good price, near airport, and very clean.</t>
+  </si>
+  <si>
+    <t>Front desk was very helpful, price was very reasonable, room was very clean and had everything you would need in a motel room. It is also close to many stores, restaurants, etc. I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk was very helpful, price was very reasonable, room was very clean and had everything you would need in a motel room. It is also close to many stores, restaurants, etc. I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r533457382-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>533457382</t>
+  </si>
+  <si>
+    <t>Served a purpose.</t>
+  </si>
+  <si>
+    <t>Hotel appearance is pleasant upon arrival. Staff cordial but not overly friendly. Rooms are ok, microfridge and microwave, desk w/ wooden chair (lamp did not work), chair w/ lamp in corner for reading, flat screen tv  (small for room size) with limited cable channels. The a/c unit filters were filthy (hadn't been cleaned in awhile), shower was ok with minimal water pressure (shower head was nasty dirty). Stayed two nights housekeeping tidied up the room but didn't restock cups or vacuum carpet. Breakfast was continental with minimal choices but there are restaurants in the area. No place to park a truck with trailer.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Hotel appearance is pleasant upon arrival. Staff cordial but not overly friendly. Rooms are ok, microfridge and microwave, desk w/ wooden chair (lamp did not work), chair w/ lamp in corner for reading, flat screen tv  (small for room size) with limited cable channels. The a/c unit filters were filthy (hadn't been cleaned in awhile), shower was ok with minimal water pressure (shower head was nasty dirty). Stayed two nights housekeeping tidied up the room but didn't restock cups or vacuum carpet. Breakfast was continental with minimal choices but there are restaurants in the area. No place to park a truck with trailer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r526568584-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>526568584</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Poor, I rented this room and paid the silly price because I wanted a jacuzzi. It had one but, you couldn't fill it.</t>
+  </si>
+  <si>
+    <t>I rented this room because it had a jacuzzi tub. Problem is they plumbed it with a kitchen faucet, not even a tub faucet. The water was on for an hour and didn't begin to fill it. By that time the water already in the tub had cooled beyond a purposefully temperature. I didn't complain, the staff could fix this kind of a problem. Way over paid for something that the room could never deliver. Last time I'll do this.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Sunny P, Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded September 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2017</t>
+  </si>
+  <si>
+    <t>I rented this room because it had a jacuzzi tub. Problem is they plumbed it with a kitchen faucet, not even a tub faucet. The water was on for an hour and didn't begin to fill it. By that time the water already in the tub had cooled beyond a purposefully temperature. I didn't complain, the staff could fix this kind of a problem. Way over paid for something that the room could never deliver. Last time I'll do this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r523409769-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>523409769</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>This is my hotel of choice when I'm in the area, staff is very accomdating and friendly. Great valve at a fair price. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This is my hotel of choice when I'm in the area, staff is very accomdating and friendly. Great valve at a fair price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r517204836-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>517204836</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Great Location, Property at Great Price</t>
+  </si>
+  <si>
+    <t>Rooms are very clean and the property is located by excellent restaurants, shopping and interstate access. I had some business reports to have scanned and Willis went out of his way to help. If staying in Northeast Houston, this is your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sunny P, Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded September 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2017</t>
+  </si>
+  <si>
+    <t>Rooms are very clean and the property is located by excellent restaurants, shopping and interstate access. I had some business reports to have scanned and Willis went out of his way to help. If staying in Northeast Houston, this is your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r485776241-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>485776241</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sunny P, Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r484916297-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>484916297</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Sunny P, Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r483748627-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>483748627</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Sunny P, Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r471773741-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>471773741</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r468709601-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>468709601</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r461405079-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>461405079</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>The beds were very comfortable , room was very clean, the area was very safe, and easy access to I69.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>The beds were very comfortable , room was very clean, the area was very safe, and easy access to I69.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r449244981-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>449244981</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Great Value, but</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times as it is convenient to airport when i travel and near medical facilities when i have checkups.  Unfortunately , after many years, i will be seeking a new place for my stays. For the second time, there was no wifi in my room. The fact that the cable was out could be blamed on the severe weather. Without wifi, i just cannot get things done. However, if that is not important to you, everything else at this hotel was very satisfactory. And, there is wifi in the lobby when it is open. Quiet location for a good rest. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times as it is convenient to airport when i travel and near medical facilities when i have checkups.  Unfortunately , after many years, i will be seeking a new place for my stays. For the second time, there was no wifi in my room. The fact that the cable was out could be blamed on the severe weather. Without wifi, i just cannot get things done. However, if that is not important to you, everything else at this hotel was very satisfactory. And, there is wifi in the lobby when it is open. Quiet location for a good rest. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r447510486-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>447510486</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r443337045-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>443337045</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r428502248-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>428502248</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r426426047-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>426426047</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Wife's reward</t>
+  </si>
+  <si>
+    <t>This was part of a reward for my wife's transfer and promotion. Had a relaxing and enjoyable experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2016</t>
+  </si>
+  <si>
+    <t>This was part of a reward for my wife's transfer and promotion. Had a relaxing and enjoyable experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r425952623-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>425952623</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Great place and Great Value , Great location and Very helpful people at Hotel and in the Humble Area</t>
+  </si>
+  <si>
+    <t>I have stayed at this Super 8 Hotel located close to FM rd 1960 9 times in 2016 .
+I keep coming back because its like home for me . Very convienient location with all shopping and resturant amenities I need close bye .The Hotel is well kept clean and quiet and safe . I keep on meeting very nice people in the Humble Area . This is boosted bye the owner and staff at the Super 8 also . They have been fantastic help to me to meet special needs and information about the area to fill my needs . This Hotel also offers the lowest rates along with great service . I like the Hotel Super 8 , The staff very much and the Lowest rate .I  will come back in the future for sure as this place is my second home when I come back to the US . The Hotel is always quiet and never has been crowded . When my flight has arrived early they have had a room ready for me before check in ( very outgoing staff ) and when my flight has left late they have taken care of my suit case for me in a locked room .I regard these things to be favors and very nice people . The Hotel is very close to the Deer Brook mall , many shopping centers and many great resturants of all kinds ....I have stayed at this Super 8 Hotel located close to FM rd 1960 9 times in 2016 .I keep coming back because its like home for me . Very convienient location with all shopping and resturant amenities I need close bye .The Hotel is well kept clean and quiet and safe . I keep on meeting very nice people in the Humble Area . This is boosted bye the owner and staff at the Super 8 also . They have been fantastic help to me to meet special needs and information about the area to fill my needs . This Hotel also offers the lowest rates along with great service . I like the Hotel Super 8 , The staff very much and the Lowest rate .I  will come back in the future for sure as this place is my second home when I come back to the US . The Hotel is always quiet and never has been crowded . When my flight has arrived early they have had a room ready for me before check in ( very outgoing staff ) and when my flight has left late they have taken care of my suit case for me in a locked room .I regard these things to be favors and very nice people . The Hotel is very close to the Deer Brook mall , many shopping centers and many great resturants of all kinds . Its a really nice area for anyone travelling and 15 minutes from airport . They have a great taxi service A and M taxi . They also with the hotel staff have hellped me very much many times . I write this review very sincerely !MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this Super 8 Hotel located close to FM rd 1960 9 times in 2016 .
+I keep coming back because its like home for me . Very convienient location with all shopping and resturant amenities I need close bye .The Hotel is well kept clean and quiet and safe . I keep on meeting very nice people in the Humble Area . This is boosted bye the owner and staff at the Super 8 also . They have been fantastic help to me to meet special needs and information about the area to fill my needs . This Hotel also offers the lowest rates along with great service . I like the Hotel Super 8 , The staff very much and the Lowest rate .I  will come back in the future for sure as this place is my second home when I come back to the US . The Hotel is always quiet and never has been crowded . When my flight has arrived early they have had a room ready for me before check in ( very outgoing staff ) and when my flight has left late they have taken care of my suit case for me in a locked room .I regard these things to be favors and very nice people . The Hotel is very close to the Deer Brook mall , many shopping centers and many great resturants of all kinds ....I have stayed at this Super 8 Hotel located close to FM rd 1960 9 times in 2016 .I keep coming back because its like home for me . Very convienient location with all shopping and resturant amenities I need close bye .The Hotel is well kept clean and quiet and safe . I keep on meeting very nice people in the Humble Area . This is boosted bye the owner and staff at the Super 8 also . They have been fantastic help to me to meet special needs and information about the area to fill my needs . This Hotel also offers the lowest rates along with great service . I like the Hotel Super 8 , The staff very much and the Lowest rate .I  will come back in the future for sure as this place is my second home when I come back to the US . The Hotel is always quiet and never has been crowded . When my flight has arrived early they have had a room ready for me before check in ( very outgoing staff ) and when my flight has left late they have taken care of my suit case for me in a locked room .I regard these things to be favors and very nice people . The Hotel is very close to the Deer Brook mall , many shopping centers and many great resturants of all kinds . Its a really nice area for anyone travelling and 15 minutes from airport . They have a great taxi service A and M taxi . They also with the hotel staff have hellped me very much many times . I write this review very sincerely !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r425048184-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>425048184</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Greatest hotel for the lowest price!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Absolutely LOVE this place !! Hotel staff is sooooooo friendly!  The guy at the front desk is amazing!! Always remembers his customers and their preference!! No matter if I book online he always knows which room I prefer!! Man he is the greatest!  As I have said before this will always be my go to place when I'm in Houston area!  I am not treated as a guest I am treated as a family member!! To me you don't get any more hospitality like that anywhere!!! Thank you Super 8 for your generosity and your EXCELLENT service!!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Absolutely LOVE this place !! Hotel staff is sooooooo friendly!  The guy at the front desk is amazing!! Always remembers his customers and their preference!! No matter if I book online he always knows which room I prefer!! Man he is the greatest!  As I have said before this will always be my go to place when I'm in Houston area!  I am not treated as a guest I am treated as a family member!! To me you don't get any more hospitality like that anywhere!!! Thank you Super 8 for your generosity and your EXCELLENT service!!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r418886626-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>418886626</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r417761145-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>417761145</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>The room was spacious. I asked for nonsmoking, however the...</t>
+  </si>
+  <si>
+    <t>The room was spacious. I asked for nonsmoking, however the room smelled of smoke.  They came and washed the carpet and it was wet, while we were out of the room.  They did not have amenities, like shampoo, conditioner or nice soap.  We could have used more towels. The room has outdated decor, old carpet and bed spread.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>The room was spacious. I asked for nonsmoking, however the room smelled of smoke.  They came and washed the carpet and it was wet, while we were out of the room.  They did not have amenities, like shampoo, conditioner or nice soap.  We could have used more towels. The room has outdated decor, old carpet and bed spread.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r413842839-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>413842839</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob </t>
+  </si>
+  <si>
+    <t>Often in the Houston area for business this hotel is convenient, the staff has always been courteous and helpful . The rooms are clean and comfortable they offer a small breakfast which also is convenient. Whenever I I'm asked of area hotels to stay at I always suggest Super 8 Humble they are very accommodatingMoreShow less</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Often in the Houston area for business this hotel is convenient, the staff has always been courteous and helpful . The rooms are clean and comfortable they offer a small breakfast which also is convenient. Whenever I I'm asked of area hotels to stay at I always suggest Super 8 Humble they are very accommodatingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r403308932-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>403308932</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r403303780-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>403303780</t>
+  </si>
+  <si>
+    <t>The hotel clerk was very rude during check in. He threw my...</t>
+  </si>
+  <si>
+    <t>The hotel clerk was very rude during check in. He threw my i.d. and credit card on the counter instead of handing it to me. He was not polite nor welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel clerk was very rude during check in. He threw my i.d. and credit card on the counter instead of handing it to me. He was not polite nor welcoming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r388462655-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>388462655</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE ...FRIENDLY STAFF...CLEAN OOMS AND OVERALL JUST AWESOME!! Way better than other hotels in the area!!  However if we could have better breakfast options it would be great such as sausage and eggs biscuits and gravy that would make the stay and breakfast way better... Other than that this hotel and staff are so friendly and very helpful!! Absolutely loved the stay!! Will defi lately stay again and again!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE ...FRIENDLY STAFF...CLEAN OOMS AND OVERALL JUST AWESOME!! Way better than other hotels in the area!!  However if we could have better breakfast options it would be great such as sausage and eggs biscuits and gravy that would make the stay and breakfast way better... Other than that this hotel and staff are so friendly and very helpful!! Absolutely loved the stay!! Will defi lately stay again and again!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r383531699-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>383531699</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Best rate and quiet comfort near the airport</t>
+  </si>
+  <si>
+    <t>Always clean and quiet. Helpfull staff. Noticed that the pool had a chair for the disabled which was nice. Good restaurants nearby as well as shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Always clean and quiet. Helpfull staff. Noticed that the pool had a chair for the disabled which was nice. Good restaurants nearby as well as shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r382548460-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>382548460</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r366889346-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>366889346</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>We have stayed at this motel numerous times and have always found the stay enjoyable.  The rooms are very clean and the staff is very accommodating.  We had to change our reservations due to illness and this change was done quickly and efficiently by the staff.  We will return!  Thanks to the management for their assistance.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded April 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at this motel numerous times and have always found the stay enjoyable.  The rooms are very clean and the staff is very accommodating.  We had to change our reservations due to illness and this change was done quickly and efficiently by the staff.  We will return!  Thanks to the management for their assistance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r364305168-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>364305168</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Fifty1sttrips</t>
+  </si>
+  <si>
+    <t>Nice, clean...friendly staff...shopping &amp; lots of restaurants in walking distance...the mall is a few blocks away.. reasonably priced, as most hotels in Houston had no vacancies do to the NCAA basketball championship.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Nice, clean...friendly staff...shopping &amp; lots of restaurants in walking distance...the mall is a few blocks away.. reasonably priced, as most hotels in Houston had no vacancies do to the NCAA basketball championship.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r364200676-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>364200676</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Just a quick stop</t>
+  </si>
+  <si>
+    <t>Had a late night in the Humble area, stayed here for a quick nap! Room was very clean, shower head was just awesome! Bed was comfortable and pillows were very nice. Guy at the front counter was super nice and friendly for being so late on check in.Would definitely recommend this pace for a stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a late night in the Humble area, stayed here for a quick nap! Room was very clean, shower head was just awesome! Bed was comfortable and pillows were very nice. Guy at the front counter was super nice and friendly for being so late on check in.Would definitely recommend this pace for a stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r357847471-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>357847471</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Not worth the price compared to other properties</t>
+  </si>
+  <si>
+    <t>I stayed for two nights (Sat&amp;Sun).   The entire facility has a feel of a place that's low on cash and is being run with the bare minimum of expense.  The grounds aren't well kept, the common areas, vending and stairwells haven't been deep cleaned in a long time.The room was relatively clean, but both bedspreads were stained.  Items that don't get used often (Iron, coffee pot, etc.) were very dusty and sticky.----another sign of only doing the bare minimum.  There is also a lot of noise from the roadways nearby and what may have also been a train.The breakfast was an embarrassment.  Coffee from a machine, no liquid creamers, a few sad pastries, some cereal and a waffle maker.  There was also yogurt left sitting out at room temperature.  Another "bare minimum" effort.  It's not terrible, but for $80/night, I'd expect betterMoreShow less</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded March 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2016</t>
+  </si>
+  <si>
+    <t>I stayed for two nights (Sat&amp;Sun).   The entire facility has a feel of a place that's low on cash and is being run with the bare minimum of expense.  The grounds aren't well kept, the common areas, vending and stairwells haven't been deep cleaned in a long time.The room was relatively clean, but both bedspreads were stained.  Items that don't get used often (Iron, coffee pot, etc.) were very dusty and sticky.----another sign of only doing the bare minimum.  There is also a lot of noise from the roadways nearby and what may have also been a train.The breakfast was an embarrassment.  Coffee from a machine, no liquid creamers, a few sad pastries, some cereal and a waffle maker.  There was also yogurt left sitting out at room temperature.  Another "bare minimum" effort.  It's not terrible, but for $80/night, I'd expect betterMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r347115100-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>347115100</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>Not as bad as some reviews</t>
+  </si>
+  <si>
+    <t>Dated motel sure, looks like an old La Quinta. I was met by a pleasant middle eastern guy in the lobby, very cordial and professional. I did not smell the dreaded curry as others mentioned, lobby seemed fresh and very clean.Room was mostly clean, painted well, but marks on the walls here and there. Didnt care for the floor cleaning in the bath, rolled up hair and a bit of tissue that was obviously mopped around the commode??  Bed had what felt like a rubber lining, didn't care for that, but it was comfortable, pillows where good.Standard room amenities, fridg, microwave ect rtra.Being EX law enforcement, I didn't find the area "seedy" as some have said, actually a very convenient location. Tons of food and shopping nearby, many within a very short walk. Just look at google maps street view, zoom in and you can see most shopping eating close by.Getting to the motel for the 1st time can be a PITA!Wifi was very strong and I was midway to the back. Parking area was ample and in good order, clean and freshly painted.It is a lower price motel, but I saw mostly business type folks and a few families, what you'd expect. Surprisingly quite as well.Didn't try the continental, slept through that.Over all a good value for $60 stayed 3 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Dated motel sure, looks like an old La Quinta. I was met by a pleasant middle eastern guy in the lobby, very cordial and professional. I did not smell the dreaded curry as others mentioned, lobby seemed fresh and very clean.Room was mostly clean, painted well, but marks on the walls here and there. Didnt care for the floor cleaning in the bath, rolled up hair and a bit of tissue that was obviously mopped around the commode??  Bed had what felt like a rubber lining, didn't care for that, but it was comfortable, pillows where good.Standard room amenities, fridg, microwave ect rtra.Being EX law enforcement, I didn't find the area "seedy" as some have said, actually a very convenient location. Tons of food and shopping nearby, many within a very short walk. Just look at google maps street view, zoom in and you can see most shopping eating close by.Getting to the motel for the 1st time can be a PITA!Wifi was very strong and I was midway to the back. Parking area was ample and in good order, clean and freshly painted.It is a lower price motel, but I saw mostly business type folks and a few families, what you'd expect. Surprisingly quite as well.Didn't try the continental, slept through that.Over all a good value for $60 stayed 3 days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r340079172-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>340079172</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Kind of ok</t>
+  </si>
+  <si>
+    <t>Made my reservation online and did enter that it would be 2 adults and 2 children and when I arrived the hotel told me that the reservation was only for 2 adults, and wanted to charge me $35 more for a 5 yr old and 7 yr old. I told the hotel that as far as I knew children under the age of 10 werw free. The receptionist said no and that I would have to pay for all people in the room including children. I've stayed at a lot of different hotels and motels and all of them until now have not included the children under the age of 12. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Made my reservation online and did enter that it would be 2 adults and 2 children and when I arrived the hotel told me that the reservation was only for 2 adults, and wanted to charge me $35 more for a 5 yr old and 7 yr old. I told the hotel that as far as I knew children under the age of 10 werw free. The receptionist said no and that I would have to pay for all people in the room including children. I've stayed at a lot of different hotels and motels and all of them until now have not included the children under the age of 12. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r321155064-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>321155064</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Reasonable</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night as a pit stop before Houstom. Room was clean and adequate, various types of eateries within walking distance. Did what it said on the tin. Place to park, eat, sleep then continue on.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded October 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night as a pit stop before Houstom. Room was clean and adequate, various types of eateries within walking distance. Did what it said on the tin. Place to park, eat, sleep then continue on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r320799473-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>320799473</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r320632416-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>320632416</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r302330232-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>302330232</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Super 8 hour Rest Do Tell</t>
+  </si>
+  <si>
+    <t>Twice a year when I have a golf tournament in the in the Kingwood area I have chosen to stay here. The room is always claim there are plenty good restaurants (chicken seafood steaks coffee hamburgers fine dining a mall driving ranges three great public courses), all nearby and the staff is extremely friendly and caring. You need extra sugar extra coffee or whatever you need they will take care within their parameters.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Twice a year when I have a golf tournament in the in the Kingwood area I have chosen to stay here. The room is always claim there are plenty good restaurants (chicken seafood steaks coffee hamburgers fine dining a mall driving ranges three great public courses), all nearby and the staff is extremely friendly and caring. You need extra sugar extra coffee or whatever you need they will take care within their parameters.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r298067377-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>298067377</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r286974886-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>286974886</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Rude Manager,  not nice at all</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the low Internet prices.  Very rude management.  I was checking in and asked a simple question and was appalled at his attitude. I do not recommend this hotel. The lobby smells like curry, and the parking lot is full of trash.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the low Internet prices.  Very rude management.  I was checking in and asked a simple question and was appalled at his attitude. I do not recommend this hotel. The lobby smells like curry, and the parking lot is full of trash.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r281473047-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>281473047</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Convenient.</t>
+  </si>
+  <si>
+    <t>Plenty of eateries within close proximity with a range of choices. 1/2 mile from an upscale mall. Right off of I-69, with easy access. Bestbuy, Home Depot, Chili's, Hooters and much more. Prices are competitive and the value is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Sunny P, General Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Plenty of eateries within close proximity with a range of choices. 1/2 mile from an upscale mall. Right off of I-69, with easy access. Bestbuy, Home Depot, Chili's, Hooters and much more. Prices are competitive and the value is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r275339786-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>275339786</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>We stayed at this Super 8 for one night on our way south this past winter and for one night on our way back north.  The room we were assigned for both visits was on the main floor as we had requested. The room was very clean each time.  Breakfast is typical for a budget motel.  We stay at this motel because we like to have dinner at Pappas Seafood Restaurant and we can walk to the restaurant from this motel after a long plane trip.  We will definitely return when we are next in Humble.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this Super 8 for one night on our way south this past winter and for one night on our way back north.  The room we were assigned for both visits was on the main floor as we had requested. The room was very clean each time.  Breakfast is typical for a budget motel.  We stay at this motel because we like to have dinner at Pappas Seafood Restaurant and we can walk to the restaurant from this motel after a long plane trip.  We will definitely return when we are next in Humble.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r275327302-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>275327302</t>
+  </si>
+  <si>
+    <t>Worst service ever!!!</t>
+  </si>
+  <si>
+    <t>Staff was very rude horrible breakfast and nasty rooms I will never pick this hotel again for a future trip the harassing of the staff was almost as bad as the front desk service worst night of my life.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Staff was very rude horrible breakfast and nasty rooms I will never pick this hotel again for a future trip the harassing of the staff was almost as bad as the front desk service worst night of my life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r261122559-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>261122559</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>nithing special</t>
+  </si>
+  <si>
+    <t>Kinda of run down but clean. The free breakfast buffet was bad compared to other Super8's I've stayed at. Location is decent.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Kinda of run down but clean. The free breakfast buffet was bad compared to other Super8's I've stayed at. Location is decent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r252333374-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>252333374</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r252142346-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>252142346</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r236551915-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>236551915</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>Very poor customer service by both front desk staff and manager. Reservation not honored although printout of confirmation provided. Previously arranged discount not honored although paperwork was provided. Management made no attempt whatsoever to rectify the situation. Extremely dissatisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Sunny P, Manager at Super 8 by Wyndham Humble/Fm 1960/Hwy 59, responded to this reviewResponded October 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2014</t>
+  </si>
+  <si>
+    <t>Very poor customer service by both front desk staff and manager. Reservation not honored although printout of confirmation provided. Previously arranged discount not honored although paperwork was provided. Management made no attempt whatsoever to rectify the situation. Extremely dissatisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r230403681-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>230403681</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>Clean but stained sheets, holes in blanket, pillows smelled of smoke, room overwhelming with deodorant.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r228307406-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>228307406</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r217898361-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>217898361</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Staff was helpful, the room was great. Spacious, quiet, good beds. Bathroom was nice, also very clean. Good value.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r217577719-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>217577719</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r212076479-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>212076479</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Liars</t>
+  </si>
+  <si>
+    <t>I was emailed a conformation for a king bed with a sleeper sofa for myself wife and daughter. When we arrived we were told that we would have to take a smaller room with. 2 queen beds and we were charged $30 more than was confirmed. I will take this  up with my bank and will never use wyndham or super 8 again.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r204288556-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>204288556</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r200521522-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>200521522</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Keep looking.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer service and appreciation doesn't exist.Room smelled like smoke.Sheets were smelly.But hey it's a super 8? </t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r195814065-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>195814065</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Smelly bed sheets</t>
+  </si>
+  <si>
+    <t>Had to stay there because United Airlines made me miss my connecting flight. The rooms are relatively big, but everything is outdated. Bed sheets had a very strong smell of cleaning product.  The bathroom seemed bad too, toilet had lots of stains and was urging for some true cleaning. In the early morning, after sneezing the whole night, I wanted to leave the place as soon as possible, despite of my flight being set for 9pm and the checkout for 11am.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r186685329-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>186685329</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r186265357-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>186265357</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r182457811-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>182457811</t>
+  </si>
+  <si>
+    <t>10/26/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r166964723-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>166964723</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r161326675-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>161326675</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r161178272-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>161178272</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r159945575-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>159945575</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Need to Improve Breakfast</t>
+  </si>
+  <si>
+    <t>Have stayed at this facility several times waiting to fly out of IAH.  Rooms are fine for price but they need to improve their breakfast offerings.  Not expecting omelets at this price but need to  offer a few more varieties of pastries and fruit. Previous visits found unresponsive and surly staff, but this appears to be improving.  Will continue to use them but expect to see improvements soon.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r158282119-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>158282119</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r157802099-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>157802099</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Great Value for Money</t>
+  </si>
+  <si>
+    <t>We stayed (unexpectedly) for one night, and remained for a second one.  We were welcomed late in the evening, and the duty Manager was able to answer all our questions.  Our room (114) was very good - clean and fresh, with everything that we expected from a budget hotel.  We could hear the baby crying in the next room on our second night, but we just turned on our television.  Breakfast was basic, as we expected, but there was a reasonable choice.  Coffee was disgusting! Location is excellent for Deerbrook Shopping Mall, botanical gardens, and the airport is just one junction down the 59.  Very convenient for what we wanted to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed (unexpectedly) for one night, and remained for a second one.  We were welcomed late in the evening, and the duty Manager was able to answer all our questions.  Our room (114) was very good - clean and fresh, with everything that we expected from a budget hotel.  We could hear the baby crying in the next room on our second night, but we just turned on our television.  Breakfast was basic, as we expected, but there was a reasonable choice.  Coffee was disgusting! Location is excellent for Deerbrook Shopping Mall, botanical gardens, and the airport is just one junction down the 59.  Very convenient for what we wanted to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r151685858-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>151685858</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r150434599-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>150434599</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable rooms</t>
+  </si>
+  <si>
+    <t>Very clean and comfy rooms, easy access to Hwy 59. Staff not very friendly. Office and breakfast area smells. So if you plan on eating breakfast elsewhere go for it. This is the second time I've stayed at this Motel this last December and In January 2012 Close to Hwy 59 for shopping and dining.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r149227369-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>149227369</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>Manager was shamefully rude</t>
+  </si>
+  <si>
+    <t>I had a prepaid reservation for the Humble Texas Super 8, for 2 nights, Dec 21 &amp; 22 2012.  I got their from the airport before 1:00 PM.  The manager was rude and abrupt with me.  I asked if I could wait on the couch.  10 minutes later he was yelling at me, I could not believe it.  I attempted to redirect his anger by asking if my room was ready.  He still wanted to yell because he apparently did not like the way I was sitting on the couch, I looked to comfortable.
+He actually called me names.
+I asked for the manager, he seemed to get even more made yelling that he was boss (his english was not very good)  I told him that I was called Super 8 headquarters but he still kept yelling.
+When I was on the phone with Super 8 customer service, he was still yelling and the girl on the other end could actually hear him yelling.
+Then because I called to complain about him, he started yelling that he was canceling my prepaid reservation.
+The Customer Service and Super 8 were surprisingly not helpful to me, they did call the manager while I was on hold, then told me that the manager could do what ever he wanted to and that she could do nothing for me.
+The worst experience of poor customer service I ever experienced.  
+I have attempted without success...I had a prepaid reservation for the Humble Texas Super 8, for 2 nights, Dec 21 &amp; 22 2012.  I got their from the airport before 1:00 PM.  The manager was rude and abrupt with me.  I asked if I could wait on the couch.  10 minutes later he was yelling at me, I could not believe it.  I attempted to redirect his anger by asking if my room was ready.  He still wanted to yell because he apparently did not like the way I was sitting on the couch, I looked to comfortable.He actually called me names.I asked for the manager, he seemed to get even more made yelling that he was boss (his english was not very good)  I told him that I was called Super 8 headquarters but he still kept yelling.When I was on the phone with Super 8 customer service, he was still yelling and the girl on the other end could actually hear him yelling.Then because I called to complain about him, he started yelling that he was canceling my prepaid reservation.The Customer Service and Super 8 were surprisingly not helpful to me, they did call the manager while I was on hold, then told me that the manager could do what ever he wanted to and that she could do nothing for me.The worst experience of poor customer service I ever experienced.  I have attempted without success to inform the owner of that hotel what his manager did but without luck.It really leave a bad feeling for Super 8 and Houston in general, not sure I want to visit Houston again and I certainly do not want to trust Super 8 again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a prepaid reservation for the Humble Texas Super 8, for 2 nights, Dec 21 &amp; 22 2012.  I got their from the airport before 1:00 PM.  The manager was rude and abrupt with me.  I asked if I could wait on the couch.  10 minutes later he was yelling at me, I could not believe it.  I attempted to redirect his anger by asking if my room was ready.  He still wanted to yell because he apparently did not like the way I was sitting on the couch, I looked to comfortable.
+He actually called me names.
+I asked for the manager, he seemed to get even more made yelling that he was boss (his english was not very good)  I told him that I was called Super 8 headquarters but he still kept yelling.
+When I was on the phone with Super 8 customer service, he was still yelling and the girl on the other end could actually hear him yelling.
+Then because I called to complain about him, he started yelling that he was canceling my prepaid reservation.
+The Customer Service and Super 8 were surprisingly not helpful to me, they did call the manager while I was on hold, then told me that the manager could do what ever he wanted to and that she could do nothing for me.
+The worst experience of poor customer service I ever experienced.  
+I have attempted without success...I had a prepaid reservation for the Humble Texas Super 8, for 2 nights, Dec 21 &amp; 22 2012.  I got their from the airport before 1:00 PM.  The manager was rude and abrupt with me.  I asked if I could wait on the couch.  10 minutes later he was yelling at me, I could not believe it.  I attempted to redirect his anger by asking if my room was ready.  He still wanted to yell because he apparently did not like the way I was sitting on the couch, I looked to comfortable.He actually called me names.I asked for the manager, he seemed to get even more made yelling that he was boss (his english was not very good)  I told him that I was called Super 8 headquarters but he still kept yelling.When I was on the phone with Super 8 customer service, he was still yelling and the girl on the other end could actually hear him yelling.Then because I called to complain about him, he started yelling that he was canceling my prepaid reservation.The Customer Service and Super 8 were surprisingly not helpful to me, they did call the manager while I was on hold, then told me that the manager could do what ever he wanted to and that she could do nothing for me.The worst experience of poor customer service I ever experienced.  I have attempted without success to inform the owner of that hotel what his manager did but without luck.It really leave a bad feeling for Super 8 and Houston in general, not sure I want to visit Houston again and I certainly do not want to trust Super 8 again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r146089854-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>146089854</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>Humble Super8</t>
+  </si>
+  <si>
+    <t>Would never stay here again.! I gave this place 1 star for clean sheets and two queen size beds. The room had a weird, digusting odor. The bathroom smelled like urine and had black mold on the wall where the tub was leaking. Only stayed because we only slept here, did not stay during the day.  Would not refer this motel.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r145616191-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>145616191</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r144875489-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>144875489</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r142489979-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>142489979</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r126584942-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>126584942</t>
+  </si>
+  <si>
+    <t>03/24/2012</t>
+  </si>
+  <si>
+    <t>Convenient, clean, and great layout</t>
+  </si>
+  <si>
+    <t>I have stayed here several times when visiting Humble, TX.  It is located on a back street that runs behind most of the best restaurants in the area, making them within walking distance.  That includes Saltgrass Steakhouse, Joe's Crab Shack, Chuy's, Hooter's, and many more.  The Deerbrook shopping mall is just across the freeway for all shopping needs.  As for the hotel, it is small, yet big enough to offer the great amenities including a laundry area, vending, and free breakfast including hot waffles.  The pool is clean, as is the lobby area and the rooms I have stayed in.  The area is safe, so the outside facing doors make it convenient to unload and load your car close to your room.  The prices here are always the lowest in the area.The rooms are very large and roomy.  I had the basic room, king, non-smoking.  It also had a sitting area, fridge, microwave, and large bathroom area.  I have never been dissatisfied with my stays here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I have stayed here several times when visiting Humble, TX.  It is located on a back street that runs behind most of the best restaurants in the area, making them within walking distance.  That includes Saltgrass Steakhouse, Joe's Crab Shack, Chuy's, Hooter's, and many more.  The Deerbrook shopping mall is just across the freeway for all shopping needs.  As for the hotel, it is small, yet big enough to offer the great amenities including a laundry area, vending, and free breakfast including hot waffles.  The pool is clean, as is the lobby area and the rooms I have stayed in.  The area is safe, so the outside facing doors make it convenient to unload and load your car close to your room.  The prices here are always the lowest in the area.The rooms are very large and roomy.  I had the basic room, king, non-smoking.  It also had a sitting area, fridge, microwave, and large bathroom area.  I have never been dissatisfied with my stays here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r125628428-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>125628428</t>
+  </si>
+  <si>
+    <t>03/04/2012</t>
+  </si>
+  <si>
+    <t>A Pleasant Suprise</t>
+  </si>
+  <si>
+    <t>An airport motel for $50 a night.  That combination sounds like you could be in for a bad experience.  My wife and I were surprised to find a truly nice room. (comfortable bed, super clean bathroom and carpet)  The breakfast bar was also above average.  The only problem I had was that the hotel computer was having major issues.  When I informed Mercedes, the desk clerk, she let me use her personal laptop.  Our stay here was a very good ending on our two week vacation in Texas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r98288660-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>98288660</t>
+  </si>
+  <si>
+    <t>02/27/2011</t>
+  </si>
+  <si>
+    <t>Discusting, Poor service, Rude Management</t>
+  </si>
+  <si>
+    <t>Many Issued we had..one of the Worst stay we ever had! ..I would like to tell every visitor that if u decide to stay here at this property make sure you Double Check your Rate becoz they charge more than what they promised, very poor service, Mangement is rude, Lady at the front desk had so much attitude and didn't have any concern..Room was Horrible, we found dirty spots n hair in the sheets, towels looks unwashed but location was good. I won't recommened becoz if you spend money than you deserve better or best..</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r91599007-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>91599007</t>
+  </si>
+  <si>
+    <t>01/03/2011</t>
+  </si>
+  <si>
+    <t>document the rate</t>
+  </si>
+  <si>
+    <t>Make sure you have your rate in writing or they will not honor it.  My check-in took forever as I waited for the 3 parties in front of me to argue with the owner about the rate or a discount that was agreed upon when they called to make the reservation. These owners love to argue, as if it is part of the process!! They don't seem care about repeat business because each group finished their turn with "I will never stay here again!" I had my documentation so I got the rate promised.Once I finally check-in I found my room to smell very musty as others have reported. My wife found it very repulsive but once I turned on some ventilation I did not smell it again. The management needs to turn on the vent blower for the rooms they know will be used each night, first impression counts. I did find the room to otherwise be clean and the carpet looked new. It was a very large room with two KING beds, I have never seen that before!!Overall the stay was OK, just be ready to battle for your promised rate!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>Make sure you have your rate in writing or they will not honor it.  My check-in took forever as I waited for the 3 parties in front of me to argue with the owner about the rate or a discount that was agreed upon when they called to make the reservation. These owners love to argue, as if it is part of the process!! They don't seem care about repeat business because each group finished their turn with "I will never stay here again!" I had my documentation so I got the rate promised.Once I finally check-in I found my room to smell very musty as others have reported. My wife found it very repulsive but once I turned on some ventilation I did not smell it again. The management needs to turn on the vent blower for the rooms they know will be used each night, first impression counts. I did find the room to otherwise be clean and the carpet looked new. It was a very large room with two KING beds, I have never seen that before!!Overall the stay was OK, just be ready to battle for your promised rate!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r89922897-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>89922897</t>
+  </si>
+  <si>
+    <t>12/15/2010</t>
+  </si>
+  <si>
+    <t>Disgusting rooms.  I'd rather sleep in my car.</t>
+  </si>
+  <si>
+    <t>I don't mind dingy but this place is disgustingly filthy.  Both rooms offered reeked of mold and stale beer.  Management was first indifferent then hostile.  The 800-number for Super 8 was equally unconcerned.  I was told someone would contact me within a couple of days.  Never happened.  Fair warning if you reserve a room at a Super 8: even if it's filthy, they'll charge your card.  Even so, I'd rather sleep in my car.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r6842939-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>6842939</t>
+  </si>
+  <si>
+    <t>02/25/2007</t>
+  </si>
+  <si>
+    <t>just what we were looking for</t>
+  </si>
+  <si>
+    <t>Went to visit family in Houston Feb 23-27 and chose this motel due to its location just north of 1960 and close to everything without getting too close to the big city.  The facility is relatively new (about 3 years old) so there isn't a lot of wear and tear showing yet.  Rooms are typical small motel rooms but our non-smoking room  came with a king bed, an apt sized fridge,  microwave and coffeemaker.  Bathroom doors are stained and  have granite veneer in the tub area, a nice extra touch.  Internet service in rooms is not wireless as we expected but we didn't read carefully.  It is high speed but take along your cable like we did.  The data port is behind the nightstand with the phone jack which is a little unhandy.  Would have been more convenient by the desk but not a big deal.  Also, there is a business center in the office area with a desktop available.   Workout room is very basic with a nice NordiTrack treadmill and a Life Fitness home gym; no stationary bike as advertised.  There is a guest laundry which we did not use.  Our rooms had an iron and ironing board.  Maid service was good and everything seemed very clean.  With our AARP discount, we paid $53 per night.  If you're looking for an inexpensive, clean room near Bush Intercontinental, this should do the trick.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>Went to visit family in Houston Feb 23-27 and chose this motel due to its location just north of 1960 and close to everything without getting too close to the big city.  The facility is relatively new (about 3 years old) so there isn't a lot of wear and tear showing yet.  Rooms are typical small motel rooms but our non-smoking room  came with a king bed, an apt sized fridge,  microwave and coffeemaker.  Bathroom doors are stained and  have granite veneer in the tub area, a nice extra touch.  Internet service in rooms is not wireless as we expected but we didn't read carefully.  It is high speed but take along your cable like we did.  The data port is behind the nightstand with the phone jack which is a little unhandy.  Would have been more convenient by the desk but not a big deal.  Also, there is a business center in the office area with a desktop available.   Workout room is very basic with a nice NordiTrack treadmill and a Life Fitness home gym; no stationary bike as advertised.  There is a guest laundry which we did not use.  Our rooms had an iron and ironing board.  Maid service was good and everything seemed very clean.  With our AARP discount, we paid $53 per night.  If you're looking for an inexpensive, clean room near Bush Intercontinental, this should do the trick.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r6156304-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>6156304</t>
+  </si>
+  <si>
+    <t>11/19/2006</t>
+  </si>
+  <si>
+    <t>Avoid this Motel</t>
+  </si>
+  <si>
+    <t>I had a pre-paid reservation with a guarantee of a room check-in up to 7am the next day.  When I arrived at 2am the motel had my pre-paid reservation but had rooms; they re-rented my room.  The desk manager could/would not refund my money without motel owner approval.  They could not find a motel within 30 miles with a room.  After working with them for about an hour I finally tried to sleep in my rental car.  I went to work the next day sleepy, grumpy, and without a shower.  I have an open conplaint with national customer service; the hotel owner has not yet responded.Please avoid this motel.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d446410-r3941401-Super_8_by_Wyndham_Humble_Fm_1960_Hwy_59-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>3941401</t>
+  </si>
+  <si>
+    <t>09/26/2005</t>
+  </si>
+  <si>
+    <t>Haven in a Hurricane</t>
+  </si>
+  <si>
+    <t>This Super 8 is two miles from Bush Intercontinental Airport and has a free shuttle to and from the airport.  The hotel is pet friendly.
+I stayed here for three nights during Hurricane Rita.  The hotel lost power during my stay, and was filled to the brim with people seeking shelter from the storm.  The owners of this Super 8 were amazing.  They handled the overcrowding, frightened guests, and special needs of some of the guests with amazing capability.
+I was alone and scared, and the family that runs the Super 8 went above and beyond any expected measures to make sure that I was comfortable and safe.  They even took me with them to Taco Bell when we heard that Taco Bell had electricity and was serving food on Saturday night.  They treated me like family, and I will never forget their kindness and hospitality.
+The hotel is immaculately clean and well kept and guests are offered every possible convenience and are treated with consideration and courtesy.  I recommend this hotel to anyone planning to stay in the area, and I will definitely go back.
+The room I stayed in had one king bed and a large jacuzzi tub.  The room was very spacious and clean, and although the hotel does not have a restaurant on the premises, there are "room service" menus available and food delivery is quick, reasonably priced, and surprisingly good!  There is a small swimming...This Super 8 is two miles from Bush Intercontinental Airport and has a free shuttle to and from the airport.  The hotel is pet friendly.I stayed here for three nights during Hurricane Rita.  The hotel lost power during my stay, and was filled to the brim with people seeking shelter from the storm.  The owners of this Super 8 were amazing.  They handled the overcrowding, frightened guests, and special needs of some of the guests with amazing capability.I was alone and scared, and the family that runs the Super 8 went above and beyond any expected measures to make sure that I was comfortable and safe.  They even took me with them to Taco Bell when we heard that Taco Bell had electricity and was serving food on Saturday night.  They treated me like family, and I will never forget their kindness and hospitality.The hotel is immaculately clean and well kept and guests are offered every possible convenience and are treated with consideration and courtesy.  I recommend this hotel to anyone planning to stay in the area, and I will definitely go back.The room I stayed in had one king bed and a large jacuzzi tub.  The room was very spacious and clean, and although the hotel does not have a restaurant on the premises, there are "room service" menus available and food delivery is quick, reasonably priced, and surprisingly good!  There is a small swimming pool on the property, free continental breakfast daily, free parking, and terrific security.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2005</t>
+  </si>
+  <si>
+    <t>This Super 8 is two miles from Bush Intercontinental Airport and has a free shuttle to and from the airport.  The hotel is pet friendly.
+I stayed here for three nights during Hurricane Rita.  The hotel lost power during my stay, and was filled to the brim with people seeking shelter from the storm.  The owners of this Super 8 were amazing.  They handled the overcrowding, frightened guests, and special needs of some of the guests with amazing capability.
+I was alone and scared, and the family that runs the Super 8 went above and beyond any expected measures to make sure that I was comfortable and safe.  They even took me with them to Taco Bell when we heard that Taco Bell had electricity and was serving food on Saturday night.  They treated me like family, and I will never forget their kindness and hospitality.
+The hotel is immaculately clean and well kept and guests are offered every possible convenience and are treated with consideration and courtesy.  I recommend this hotel to anyone planning to stay in the area, and I will definitely go back.
+The room I stayed in had one king bed and a large jacuzzi tub.  The room was very spacious and clean, and although the hotel does not have a restaurant on the premises, there are "room service" menus available and food delivery is quick, reasonably priced, and surprisingly good!  There is a small swimming...This Super 8 is two miles from Bush Intercontinental Airport and has a free shuttle to and from the airport.  The hotel is pet friendly.I stayed here for three nights during Hurricane Rita.  The hotel lost power during my stay, and was filled to the brim with people seeking shelter from the storm.  The owners of this Super 8 were amazing.  They handled the overcrowding, frightened guests, and special needs of some of the guests with amazing capability.I was alone and scared, and the family that runs the Super 8 went above and beyond any expected measures to make sure that I was comfortable and safe.  They even took me with them to Taco Bell when we heard that Taco Bell had electricity and was serving food on Saturday night.  They treated me like family, and I will never forget their kindness and hospitality.The hotel is immaculately clean and well kept and guests are offered every possible convenience and are treated with consideration and courtesy.  I recommend this hotel to anyone planning to stay in the area, and I will definitely go back.The room I stayed in had one king bed and a large jacuzzi tub.  The room was very spacious and clean, and although the hotel does not have a restaurant on the premises, there are "room service" menus available and food delivery is quick, reasonably priced, and surprisingly good!  There is a small swimming pool on the property, free continental breakfast daily, free parking, and terrific security.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2002,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2034,5219 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>177</v>
+      </c>
+      <c r="X20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>205</v>
+      </c>
+      <c r="X25" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>217</v>
+      </c>
+      <c r="O26" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>218</v>
+      </c>
+      <c r="X26" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>226</v>
+      </c>
+      <c r="X27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>226</v>
+      </c>
+      <c r="X28" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>238</v>
+      </c>
+      <c r="X29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>238</v>
+      </c>
+      <c r="X30" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>238</v>
+      </c>
+      <c r="X31" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" t="s">
+        <v>258</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>259</v>
+      </c>
+      <c r="X32" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>263</v>
+      </c>
+      <c r="J33" t="s">
+        <v>264</v>
+      </c>
+      <c r="K33" t="s">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>267</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>268</v>
+      </c>
+      <c r="X33" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" t="s">
+        <v>273</v>
+      </c>
+      <c r="K34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" t="s">
+        <v>275</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>276</v>
+      </c>
+      <c r="O34" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>268</v>
+      </c>
+      <c r="X34" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>279</v>
+      </c>
+      <c r="J35" t="s">
+        <v>280</v>
+      </c>
+      <c r="K35" t="s">
+        <v>281</v>
+      </c>
+      <c r="L35" t="s">
+        <v>282</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>283</v>
+      </c>
+      <c r="O35" t="s">
+        <v>116</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>284</v>
+      </c>
+      <c r="X35" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>292</v>
+      </c>
+      <c r="X37" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" t="s">
+        <v>297</v>
+      </c>
+      <c r="L38" t="s">
+        <v>298</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>300</v>
+      </c>
+      <c r="X38" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>306</v>
+      </c>
+      <c r="X39" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>309</v>
+      </c>
+      <c r="J40" t="s">
+        <v>310</v>
+      </c>
+      <c r="K40" t="s">
+        <v>311</v>
+      </c>
+      <c r="L40" t="s">
+        <v>312</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>313</v>
+      </c>
+      <c r="O40" t="s">
+        <v>314</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>315</v>
+      </c>
+      <c r="X40" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+      <c r="K41" t="s">
+        <v>321</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>324</v>
+      </c>
+      <c r="X41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="s">
+        <v>235</v>
+      </c>
+      <c r="L42" t="s">
+        <v>330</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>331</v>
+      </c>
+      <c r="O42" t="s">
+        <v>116</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>324</v>
+      </c>
+      <c r="X42" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>334</v>
+      </c>
+      <c r="J43" t="s">
+        <v>329</v>
+      </c>
+      <c r="K43" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s">
+        <v>336</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>337</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>324</v>
+      </c>
+      <c r="X43" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>339</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" t="s">
+        <v>342</v>
+      </c>
+      <c r="L44" t="s">
+        <v>343</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>344</v>
+      </c>
+      <c r="O44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>315</v>
+      </c>
+      <c r="X44" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>346</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>347</v>
+      </c>
+      <c r="J45" t="s">
+        <v>348</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>349</v>
+      </c>
+      <c r="O45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>315</v>
+      </c>
+      <c r="X45" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>350</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>351</v>
+      </c>
+      <c r="J46" t="s">
+        <v>352</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>96</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>349</v>
+      </c>
+      <c r="O46" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>315</v>
+      </c>
+      <c r="X46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>353</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>354</v>
+      </c>
+      <c r="J47" t="s">
+        <v>355</v>
+      </c>
+      <c r="K47" t="s">
+        <v>356</v>
+      </c>
+      <c r="L47" t="s">
+        <v>357</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>358</v>
+      </c>
+      <c r="O47" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>359</v>
+      </c>
+      <c r="X47" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K48" t="s">
+        <v>365</v>
+      </c>
+      <c r="L48" t="s">
+        <v>366</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>367</v>
+      </c>
+      <c r="O48" t="s">
+        <v>116</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>369</v>
+      </c>
+      <c r="J49" t="s">
+        <v>370</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>367</v>
+      </c>
+      <c r="O49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>372</v>
+      </c>
+      <c r="J50" t="s">
+        <v>373</v>
+      </c>
+      <c r="K50" t="s">
+        <v>374</v>
+      </c>
+      <c r="L50" t="s">
+        <v>375</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>376</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>378</v>
+      </c>
+      <c r="J51" t="s">
+        <v>379</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>376</v>
+      </c>
+      <c r="O51" t="s">
+        <v>67</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>380</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>381</v>
+      </c>
+      <c r="J52" t="s">
+        <v>382</v>
+      </c>
+      <c r="K52" t="s">
+        <v>383</v>
+      </c>
+      <c r="L52" t="s">
+        <v>384</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>385</v>
+      </c>
+      <c r="O52" t="s">
+        <v>98</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>387</v>
+      </c>
+      <c r="J53" t="s">
+        <v>388</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>96</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>389</v>
+      </c>
+      <c r="O53" t="s">
+        <v>98</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>391</v>
+      </c>
+      <c r="J54" t="s">
+        <v>392</v>
+      </c>
+      <c r="K54" t="s">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s">
+        <v>394</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>395</v>
+      </c>
+      <c r="O54" t="s">
+        <v>98</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>397</v>
+      </c>
+      <c r="J55" t="s">
+        <v>398</v>
+      </c>
+      <c r="K55" t="s">
+        <v>399</v>
+      </c>
+      <c r="L55" t="s">
+        <v>400</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>401</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>402</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>403</v>
+      </c>
+      <c r="J56" t="s">
+        <v>404</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>405</v>
+      </c>
+      <c r="O56" t="s">
+        <v>98</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>406</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>407</v>
+      </c>
+      <c r="J57" t="s">
+        <v>408</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>405</v>
+      </c>
+      <c r="O57" t="s">
+        <v>98</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>409</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>410</v>
+      </c>
+      <c r="J58" t="s">
+        <v>411</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>412</v>
+      </c>
+      <c r="O58" t="s">
+        <v>116</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>413</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>414</v>
+      </c>
+      <c r="J59" t="s">
+        <v>415</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>96</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>416</v>
+      </c>
+      <c r="O59" t="s">
+        <v>314</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>417</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>418</v>
+      </c>
+      <c r="J60" t="s">
+        <v>419</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>420</v>
+      </c>
+      <c r="O60" t="s">
+        <v>116</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>421</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>422</v>
+      </c>
+      <c r="J61" t="s">
+        <v>423</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>420</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>424</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>425</v>
+      </c>
+      <c r="J62" t="s">
+        <v>426</v>
+      </c>
+      <c r="K62" t="s">
+        <v>427</v>
+      </c>
+      <c r="L62" t="s">
+        <v>428</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>429</v>
+      </c>
+      <c r="O62" t="s">
+        <v>116</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>430</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>431</v>
+      </c>
+      <c r="J63" t="s">
+        <v>432</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>433</v>
+      </c>
+      <c r="O63" t="s">
+        <v>116</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>434</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>435</v>
+      </c>
+      <c r="J64" t="s">
+        <v>436</v>
+      </c>
+      <c r="K64" t="s">
+        <v>437</v>
+      </c>
+      <c r="L64" t="s">
+        <v>438</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>429</v>
+      </c>
+      <c r="O64" t="s">
+        <v>116</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>440</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>441</v>
+      </c>
+      <c r="J65" t="s">
+        <v>442</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>96</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>443</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>444</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>445</v>
+      </c>
+      <c r="J66" t="s">
+        <v>446</v>
+      </c>
+      <c r="K66" t="s">
+        <v>447</v>
+      </c>
+      <c r="L66" t="s">
+        <v>448</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>449</v>
+      </c>
+      <c r="O66" t="s">
+        <v>98</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>450</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>451</v>
+      </c>
+      <c r="J67" t="s">
+        <v>452</v>
+      </c>
+      <c r="K67" t="s">
+        <v>453</v>
+      </c>
+      <c r="L67" t="s">
+        <v>454</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>449</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>456</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>457</v>
+      </c>
+      <c r="J68" t="s">
+        <v>458</v>
+      </c>
+      <c r="K68" t="s">
+        <v>459</v>
+      </c>
+      <c r="L68" t="s">
+        <v>460</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>461</v>
+      </c>
+      <c r="O68" t="s">
+        <v>98</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>462</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>463</v>
+      </c>
+      <c r="J69" t="s">
+        <v>464</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>461</v>
+      </c>
+      <c r="O69" t="s">
+        <v>98</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>465</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>466</v>
+      </c>
+      <c r="J70" t="s">
+        <v>467</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>461</v>
+      </c>
+      <c r="O70" t="s">
+        <v>67</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>468</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>469</v>
+      </c>
+      <c r="J71" t="s">
+        <v>470</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>471</v>
+      </c>
+      <c r="O71" t="s">
+        <v>67</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>472</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>473</v>
+      </c>
+      <c r="J72" t="s">
+        <v>474</v>
+      </c>
+      <c r="K72" t="s">
+        <v>475</v>
+      </c>
+      <c r="L72" t="s">
+        <v>476</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>477</v>
+      </c>
+      <c r="O72" t="s">
+        <v>98</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>479</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>480</v>
+      </c>
+      <c r="J73" t="s">
+        <v>481</v>
+      </c>
+      <c r="K73" t="s">
+        <v>482</v>
+      </c>
+      <c r="L73" t="s">
+        <v>483</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>477</v>
+      </c>
+      <c r="O73" t="s">
+        <v>116</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>484</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>485</v>
+      </c>
+      <c r="J74" t="s">
+        <v>486</v>
+      </c>
+      <c r="K74" t="s">
+        <v>487</v>
+      </c>
+      <c r="L74" t="s">
+        <v>488</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>489</v>
+      </c>
+      <c r="O74" t="s">
+        <v>314</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>490</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>491</v>
+      </c>
+      <c r="J75" t="s">
+        <v>492</v>
+      </c>
+      <c r="K75" t="s">
+        <v>493</v>
+      </c>
+      <c r="L75" t="s">
+        <v>494</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>495</v>
+      </c>
+      <c r="O75" t="s">
+        <v>314</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>497</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>498</v>
+      </c>
+      <c r="J76" t="s">
+        <v>499</v>
+      </c>
+      <c r="K76" t="s">
+        <v>500</v>
+      </c>
+      <c r="L76" t="s">
+        <v>501</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>502</v>
+      </c>
+      <c r="O76" t="s">
+        <v>116</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>503</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>504</v>
+      </c>
+      <c r="J77" t="s">
+        <v>505</v>
+      </c>
+      <c r="K77" t="s">
+        <v>506</v>
+      </c>
+      <c r="L77" t="s">
+        <v>507</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>508</v>
+      </c>
+      <c r="O77" t="s">
+        <v>116</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>510</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>511</v>
+      </c>
+      <c r="J78" t="s">
+        <v>512</v>
+      </c>
+      <c r="K78" t="s">
+        <v>513</v>
+      </c>
+      <c r="L78" t="s">
+        <v>514</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>515</v>
+      </c>
+      <c r="O78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52299</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>517</v>
+      </c>
+      <c r="J79" t="s">
+        <v>518</v>
+      </c>
+      <c r="K79" t="s">
+        <v>519</v>
+      </c>
+      <c r="L79" t="s">
+        <v>520</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>521</v>
+      </c>
+      <c r="O79" t="s">
+        <v>67</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
